--- a/AP42_Mining_Emissions_Calculator.xlsx
+++ b/AP42_Mining_Emissions_Calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureauveritas-my.sharepoint.com/personal/aamir_aziz_bureauveritas_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC81F252-4ABF-4E52-BDAF-23315B1A8DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{DC81F252-4ABF-4E52-BDAF-23315B1A8DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88D207BC-46C8-492F-8A24-E42815832923}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="15" xr2:uid="{7DC60560-2A73-4677-AE6B-FE178DCD5AB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="12" xr2:uid="{7DC60560-2A73-4677-AE6B-FE178DCD5AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Master_Parameters" sheetId="1" r:id="rId1"/>
@@ -51,18 +51,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>Column A Column B Column C Column D OPERATIONAL SCHEDULE Operating Hours per Day 24 hrs/day Continuous Operating Days per Year 365 days/year Annual Total Operating Hours per Year =B2*B3 hrs/year 24 × 365 Blasts per Day 2 blasts/d 6AM &amp; 6PM Total Blasts per Year =B5*B3 blasts/yr 2 × 365 Drill holes per blast 37 # From site data THROUGHPUT DATA Ore Throughput 3.5 Mtpa Million tons/annum Waste Throughput 28 Mtpa Million tons/annum Rejects Throughput 3.5 Mtpa Million tons/annum Total Throughput =B8+B9+B10 Mtpa Sum Total Throughput (tons/year) =B11*1000000 tons/yr 35 × 1,000,000 MATERIAL PROPERTIES - ORE Ore Silt Content 8 % Particle size Ore Moisture Content 1 % Water content MATERIAL PROPERTIES - WASTE Waste Silt Content 13.2 % Particle size Waste Moisture Content 2.6 % Water content MATERIAL PROPERTIES - REJECTS Rejects Silt Content 8 % Particle size Rejects Moisture Content 1 % Water content EQUIPMENT INVENTORY Ore Dozers 6 No In-pit Waste Dozers 2 No Waste dump Total Dozers =B22+B23 No Sum Graders 4 No Road maintenance Grader Average Speed 8 km/h Operational Haul Trucks (Type) Cat 777G Type Dual slope Haul Truck Capacity 91 tons/load Per load ROAD NETWORK Road: Pit to ROM Pad 2128 m One-way Road: Pit to Waste Dump 6875 m One-way Total Road Length (one-way) =B32+B33 m Sum Total Road Length (round-trip) =B34*2 m × 2 Road Silt Content 10 % Surface material WIND EROSION AREAS Active Pit Area 577000 m² Wind erosion Inactive Pits Area 867000 m² Wind erosion ROM Pad Area 104000 m² Wind erosion Tailings Storage Facility 823000 m² Wind erosion Waste Dump Area 2807000 m² Wind erosion Total Erodible Area =SUM(B41:B45) m² Sum CONVEYOR SYSTEM Conveyor: Primary to Secondary 200 m Length Conveyor: Secondary to Screen 200 m Length Conveyor: Screen to Processing 200 m Length Total Conveyor Length =SUM(B50:B52) m Sum Number of Transfer Points 3 No Emission sources METEOROLOGICAL DATA Average Wind Speed 8 m/s Site-specific Threshold Wind Speed (Erosion) 11.6 m/s AP-42 default Wind Erosion Factor 0.5 - When wind&lt;threshold</t>
+  </si>
+  <si>
+    <t>Column A Column B Column C Column D CALCULATION PARAMETERS Drill holes per blast ='Master Parameters'!B6 # From Master Blasts per day ='Master Parameters'!B5 blasts/d From Master Drill holes per day =B2*B3 holes/day =37*2 Operating days per year ='Master Parameters'!B3 days/yr From Master Total drill holes per year =B4*B5 holes/yr =74*365 EMISSION FACTORS (AP-42 - Drilling Reference) TSP Emission Factor 0.59 kg/hole AP-42 Ref PM10 Emission Factor 0.31 kg/hole 52% of TSP PM2.5 Emission Factor 0.0155 kg/hole 2.6% of TSP DAILY EMISSIONS TSP Daily Emissions =B4*B12 kg/day =74*0.59 PM10 Daily Emissions =B4*B13 kg/day =74*0.31 PM2.5 Daily Emissions =B4*B14 kg/day =74*0.0155 ANNUAL EMISSIONS (kg/year) TSP Annual Emission (kg) =B6*B12 kg/year =27010*0.59 PM10 Annual Emission (kg) =B6*B13 kg/year =27010*0.31 PM2.5 Annual Emission (kg) =B6*B14 kg/year =27010*0.0155 ANNUAL EMISSIONS (tons/year) TSP Annual Emission =B20/1000 tons/year =15935.90/1000 PM10 Annual Emission =B21/1000 tons/year =8373.10/1000 PM2.5 Annual Emission =B22/1000 tons/year =418.66/1000 EMISSION RATES (g/s) TSP Emission Rate =B20/31536000 g/s Annual/seconds PM10 Emission Rate =B21/31536000 g/s Annual/seconds PM2.5 Emission Rate =B22/31536000 g/s Annual/seconds SUMMARY - DRILLING EMISSIONS TSP (kg/day) =B16 kg/day 43.66 PM10 (kg/day) =B17 kg/day 22.94 PM2.5 (kg/day) =B18 kg/day 1.15 TSP (kg/year) =B20 kg/year 15935.90 PM10 (kg/year) =B21 kg/year 8373.10 PM2.5 (kg/year) =B22 kg/year 418.66 TSP (tons/year) =B23 tons/year 15.94 PM10 (tons/year) =B24 tons/year 8.37 PM2.5 (tons/year) =B25 tons/year 0.42 TSP (g/s) =B26 g/s 23.14 PM10 (g/s) =B27 g/s 12.18 PM2.5 (g/s) =B28 g/s 0.61</t>
+  </si>
+  <si>
+    <t>Column A Column B Column C Column D CALCULATION PARAMETERS Drill holes per blast ='Master Parameters'!B6 # From Master Blasts per day ='Master Parameters'!B5 blasts/d From Master Total blasts per year =B3*365 blasts/yr =2*365 Total drill holes per year =B2*B3 holes/yr =37*2*365 EMISSION FACTORS (AP-42 - Insert AP-42 Equation) TSP Emission Factor 0.59 kg/hole AP-42 Ref PM10 Emission Factor 0.31 kg/hole 52% of TSP PM2.5 Emission Factor 0.0155 kg/hole 2.6% of TSP DAILY EMISSIONS TSP Daily Emissions =(B2*B3)*B12 kg/day =(37*2)*0.59 PM10 Daily Emissions =(B2*B3)*B13 kg/day =(37*2)*0.31 PM2.5 Daily Emissions =(B2*B3)*B14 kg/day =(37*2)*0.0155 ANNUAL EMISSIONS (kg/year) TSP Annual Emission (kg) =B5*B12 kg/year =27010*0.59 PM10 Annual Emission (kg) =B5*B13 kg/year =27010*0.31 PM2.5 Annual Emission (kg) =B5*B14 kg/year =27010*0.0155 ANNUAL EMISSIONS (tons/year) TSP Annual Emission =B20/1000 tons/year =15935.90/1000 PM10 Annual Emission =B21/1000 tons/year =8373.10/1000 PM2.5 Annual Emission =B22/1000 tons/year =418.66/1000 EMISSION RATES (g/s) TSP Emission Rate =B20/31536000 g/s Annual/seconds PM10 Emission Rate =B21/31536000 g/s Annual/seconds PM2.5 Emission Rate =B22/31536000 g/s Annual/seconds SUMMARY - BLASTING EMISSIONS TSP (kg/day) =B16 kg/day 43.66 PM10 (kg/day) =B17 kg/day 22.94 PM2.5 (kg/day) =B18 kg/day 1.15 TSP (kg/year) =B20 kg/year 15935.90 PM10 (kg/year) =B21 kg/year 8373.10 PM2.5 (kg/year) =B22 kg/year 418.66 TSP (tons/year) =B23 tons/year 15.94 PM10 (tons/year) =B24 tons/year 8.37 PM2.5 (tons/year) =B25 tons/year 0.42 TSP (g/s) =B26 g/s 23.14 PM10 (g/s) =B27 g/s 12.18 PM2.5 (g/s) =B28 g/s 0.61</t>
+  </si>
+  <si>
+    <t>Column A Column B Column C Column D CALCULATION PARAMETERS Number of Ore Dozers ='Master Parameters'!B22 No From Master Operating Hours per Day ='Master Parameters'!B2 hrs/day From Master Operating Days per Year ='Master Parameters'!B3 days/yr From Master Total Operating Hours per Year =B2*B3*B4 hrs/year =6*24*365 Ore Throughput ='Master Parameters'!B8 Mtpa From Master Ore Silt Content ='Master Parameters'!B15 % From Master Ore Moisture Content ='Master Parameters'!B16 % From Master EMISSION FACTORS (AP-42 - Insert AP-42 Equation) Base TSP EF 31.5 kg/Mtpa AP-42 Base Silt Adjustment Factor 1.0 - For 8% silt Moisture Adjustment Factor 1.0 - For 1% moisture Adjusted TSP EF (Ore) =B12*B13*B14 kg/Mtpa =31.5*1.0*1.0 PM10 EF (Ore) =B15*0.75 kg/Mtpa =31.5*0.75 PM2.5 EF (Ore) =B15*0.10 kg/Mtpa =31.5*0.10 ANNUAL EMISSIONS (kg/year) TSP Annual Emission (kg) =B5*B15 kg/year =3.5*31.5 PM10 Annual Emission (kg) =B5*B16 kg/year =3.5*23.625 PM2.5 Annual Emission (kg) =B5*B17 kg/year =3.5*3.15 ANNUAL EMISSIONS (tons/year) TSP Annual Emission =B21/1000 tons/year =110250/1000 PM10 Annual Emission =B22/1000 tons/year =82687.5/1000 PM2.5 Annual Emission =B23/1000 tons/year =11025/1000 DAILY EMISSIONS TSP Daily Emissions =B21/365 kg/day =110250/365 PM10 Daily Emissions =B22/365 kg/day =82687.5/365 PM2.5 Daily Emissions =B23/365 kg/day =11025/365 EMISSION RATES (g/s) TSP Emission Rate =B21/31536000 g/s Annual/seconds PM10 Emission Rate =B22/31536000 g/s Annual/seconds PM2.5 Emission Rate =B23/31536000 g/s Annual/seconds SUMMARY - ORE DOZERS EMISSIONS TSP (kg/day) =B27 kg/day 302.05 PM10 (kg/day) =B28 kg/day 226.54 PM2.5 (kg/day) =B29 kg/day 30.21 TSP (kg/year) =B21 kg/year 110250 PM10 (kg/year) =B22 kg/year 82687.5 PM2.5 (kg/year) =B23 kg/year 11025 TSP (tons/year) =B24 tons/year 110.25 PM10 (tons/year) =B25 tons/year 82.69 PM2.5 (tons/year) =B26 tons/year 11.03 TSP (g/s) =B30 g/s 3.50 PM10 (g/s) =B31 g/s 2.62 PM2.5 (g/s) =B32 g/s 0.35</t>
+  </si>
+  <si>
+    <t>A B C D ORE HAULING PARAMETERS Ore Throughput 3.5 Mtpa From Master Ore Throughput (tons/year) 3500000 tons/yr =B2*1000000 Truck Capacity (Cat 777G) 91 tons/load From Master Ore Trips per Year 38462 trips/yr =B3/B4 Road Length (Pit to ROM Pad) 2.128 km From Master Road Length (Round Trip) 4.256 km =B6*2 Ore VMT per Year 163759 VMT/year =B5*B7 WASTE HAULING PARAMETERS Waste Throughput 28 Mtpa From Master Waste Throughput (tons/year) 28000000 tons/yr =B10*1000000 Truck Capacity (Cat 777G) 91 tons/load From Master Waste Trips per Year 307692 trips/yr =B11/B12 Road Length (Pit to Waste Dump) 6.875 km From Master Road Length (Round Trip) 13.75 km =B14*2 Waste VMT per Year 4230769 VMT/year =B13*B15 TOTAL HAULING PARAMETERS Total VMT per Year 4394528 VMT/year =B8+B16 Total VMT per Day 12042 VMT/day =B17/365 Road Silt Content 10 % From Master EMISSION FACTORS (AP-42 Table 13.2.2) TSP Emission Factor 1.5 lb/VMT AP-42 PM10 Emission Factor 0.34 lb/VMT AP-42 PM2.5 Emission Factor 0.054 lb/VMT AP-42 Conversion Factor (lb to kg) 0.453592 - Standard TSP EF (kg/VMT) 0.6804 kg/VMT =B26*B29 PM10 EF (kg/VMT) 0.1542 kg/VMT =B27*B29 PM2.5 EF (kg/VMT) 0.0245 kg/VMT =B28*B29 DAILY EMISSIONS TSP Daily Emissions 8192.39 kg/day =B20*B30 PM10 Daily Emissions 1857.27 kg/day =B20*B31 PM2.5 Daily Emissions 294.83 kg/day =B20*B32 ANNUAL EMISSIONS TSP Annual Emission 2990222 kg/year =B19*B30 PM10 Annual Emission 677934 kg/year =B19*B31 PM2.5 Annual Emission 107613 kg/year =B19*B32 TSP Annual Emission 2990.22 tons/year =B35/1000 PM10 Annual Emission 677.93 tons/year =B36/1000 PM2.5 Annual Emission 107.61 tons/year =B37/1000 EMISSION RATES TSP Emission Rate 94.87 g/s =B35/31536000 PM10 Emission Rate 21.51 g/s =B36/31536000 PM2.5 Emission Rate 3.41 g/s =B37/31536000 SUMMARY - HAULING TSP (tons/year) 2990.22 - - PM10 (tons/year) 677.93 - - PM2.5 (tons/year) 107.61 - -</t>
+  </si>
+  <si>
+    <t>A B C D CALCULATION PARAMETERS Number of Graders 4 No From Master Grader Average Speed 8 km/h From Master Operating Hours per Day 24 hrs/day From Master Operating Days per Year 365 days/year From Master Total Road Length 9.003 km From Master Daily Grader km 864 km/day =B2*B3*B4 Daily Grader Miles 1728 miles/day =B6*0.621371 Annual Grader Miles 630720 miles/yr =B7*365 Road Silt Content 10 % From Master EMISSION FACTORS (AP-42 Table 13.2.3) TSP Emission Factor 0.09 lb/mile AP-42 PM10 Emission Factor 0.02 lb/mile AP-42 PM2.5 Emission Factor 0.003 lb/mile AP-42 Conversion Factor (lb to kg) 0.453592 - Standard TSP EF (kg/mile) 0.0408 kg/mile =B18*B21 PM10 EF (kg/mile) 0.0091 kg/mile =B19*B21 PM2.5 EF (kg/mile) 0.0014 kg/mile =B20*B21 DAILY EMISSIONS TSP Daily Emissions 70.46 kg/day =B7*B22 PM10 Daily Emissions 15.73 kg/day =B7*B23 PM2.5 Daily Emissions 2.42 kg/day =B7*B24 ANNUAL EMISSIONS TSP Annual Emission 25718 kg/year =B8*B22 PM10 Annual Emission 5741 kg/year =B8*B23 PM2.5 Annual Emission 883 kg/year =B8*B24 TSP Annual Emission 25.72 tons/year =B31/1000 PM10 Annual Emission 5.74 tons/year =B32/1000 PM2.5 Annual Emission 0.88 tons/year =B33/1000 EMISSION RATES TSP Emission Rate 0.82 g/s =B31/31536000 PM10 Emission Rate 0.18 g/s =B32/31536000 PM2.5 Emission Rate 0.03 g/s =B33/31536000 SUMMARY - GRADERS TSP (tons/year) 25.72 - - PM10 (tons/year) 5.74 - - PM2.5 (tons/year) 0.88 - -</t>
+  </si>
+  <si>
+    <t>A B C D CALCULATION PARAMETERS Ore Throughput 3.5 Mtpa From Master Ore Throughput (tons/year) 3500000 tons/yr =B2*1000000 Operating Days per Year 365 days/year From Master Material per Day 9589 tons/day =B3/B4 Ore Silt Content 8 % From Master Ore Moisture Content 1 % From Master PRIMARY CRUSHER EMISSION FACTORS Base TSP EF (Primary) 0.0032 kg/ton AP-42 PM10 EF (Primary) 0.00073 kg/ton AP-42 PM2.5 EF (Primary) 0.00015 kg/ton AP-42 SECONDARY CRUSHER EMISSION FACTORS Base TSP EF (Secondary) 0.0024 kg/ton AP-42 PM10 EF (Secondary) 0.00055 kg/ton AP-42 PM2.5 EF (Secondary) 0.00011 kg/ton AP-42 GRINDING MILL EMISSION FACTORS Base TSP EF (Grinding) 0.0018 kg/ton AP-42 PM10 EF (Grinding) 0.00041 kg/ton AP-42 PM2.5 EF (Grinding) 0.00008 kg/ton AP-42 PRIMARY CRUSHER - ANNUAL EMISSIONS TSP Annual Emission 11200 kg/year =B3*B14 PM10 Annual Emission 2555 kg/year =B3*B15 PM2.5 Annual Emission 525 kg/year =B3*B16 SECONDARY CRUSHER - ANNUAL EMISSIONS TSP Annual Emission 8400 kg/year =B3*B21 PM10 Annual Emission 1925 kg/year =B3*B22 PM2.5 Annual Emission 385 kg/year =B3*B23 GRINDING MILL - ANNUAL EMISSIONS TSP Annual Emission 6300 kg/year =B3*B28 PM10 Annual Emission 1436 kg/year =B3*B29 PM2.5 Annual Emission 280 kg/year =B3*B30 TOTAL CRUSHING &amp; GRINDING - ANNUAL EMISSIONS TSP Annual Emission 25900 kg/year =B33+B40+B47 PM10 Annual Emission 5916 kg/year =B34+B41+B48 PM2.5 Annual Emission 1190 kg/year =B35+B42+B49 TSP Annual Emission 25.90 tons/year =B50/1000 PM10 Annual Emission 5.92 tons/year =B51/1000 PM2.5 Annual Emission 1.19 tons/year =B52/1000 DAILY EMISSIONS TSP Daily Emissions 70.96 kg/day =B50/365 PM10 Daily Emissions 16.21 kg/day =B51/365 PM2.5 Daily Emissions 3.26 kg/day =B52/365 EMISSION RATES TSP Emission Rate 0.82 g/s =B50/31536000 PM10 Emission Rate 0.19 g/s =B51/31536000 PM2.5 Emission Rate 0.04 g/s =B52/31536000 SUMMARY - CRUSHING &amp; GRINDING TSP (tons/year) 25.90 - - PM10 (tons/year) 5.92 - - PM2.5 (tons/year) 1.19 - -</t>
+  </si>
+  <si>
+    <t>A B C D CALCULATION PARAMETERS Ore Throughput 3.5 Mtpa From Master Rejects Throughput 3.5 Mtpa From Master Total Material Handled 7 Mtpa =B2+B3 Total Material (tons/year) 7000000 tons/yr =B4*1000000 Operating Days per Year 365 days/year From Master Material per Day 19178 tons/day =B5/B6 Number of Transfer Points 3 No From Master Ore Silt Content 8 % From Master Ore Moisture Content 1 % From Master EMISSION FACTORS (AP-42 Table 11.19-6) Base TSP EF 0.0016 kg/ton AP-42 PM10 EF 0.00037 kg/ton AP-42 PM2.5 EF 0.000074 kg/ton AP-42 ANNUAL EMISSIONS TSP Annual Emission 11200 kg/year =B5*B14*B8 PM10 Annual Emission 2590 kg/year =B5*B15*B8 PM2.5 Annual Emission 518 kg/year =B5*B16*B8 TSP Annual Emission 11.20 tons/year =B21/1000 PM10 Annual Emission 2.59 tons/year =B22/1000 PM2.5 Annual Emission 0.52 tons/year =B23/1000 DAILY EMISSIONS TSP Daily Emissions 30.68 kg/day =B21/365 PM10 Daily Emissions 7.10 kg/day =B22/365 PM2.5 Daily Emissions 1.42 kg/day =B23/365 EMISSION RATES TSP Emission Rate 0.36 g/s =B21/31536000 PM10 Emission Rate 0.08 g/s =B22/31536000 PM2.5 Emission Rate 0.02 g/s =B23/31536000 SUMMARY - MATERIAL HANDLING TSP (tons/year) 11.20 - - PM10 (tons/year) 2.59 - - PM2.5 (tons/year) 0.52 - -</t>
+  </si>
+  <si>
+    <t>A B C D CALCULATION PARAMETERS Active Pit Area 577000 m² From Master Inactive Pits Area 867000 m² From Master ROM Pad Area 104000 m² From Master Tailings Storage Facility 823000 m² From Master Waste Dump Area 2807000 m² From Master Total Erodible Area 5178000 m² =SUM(B2:B6) Average Wind Speed 8 m/s From Master Threshold Wind Speed 11.6 m/s AP-42 default Wind Erosion Factor 0.5 - When wind&lt;threshold Waste Silt Content 13.2 % From Master Waste Moisture Content 2.6 % From Master EMISSION FACTORS (AP-42 Table 11.19-7) Base TSP EF 0.00021 lb/m²/yr AP-42 PM10 EF 0.000048 lb/m²/yr AP-42 PM2.5 EF 0.0000097 lb/m²/yr AP-42 Conversion Factor (lb to kg) 0.453592 - Standard TSP EF (kg/m²/yr) 0.0000953 kg/m²/yr =B22*B25 PM10 EF (kg/m²/yr) 0.0000218 kg/m²/yr =B23*B25 PM2.5 EF (kg/m²/yr) 0.0000044 kg/m²/yr =B24*B25 ANNUAL EMISSIONS TSP Annual Emission 493300 kg/year =B7*B26 PM10 Annual Emission 112880 kg/year =B7*B27 PM2.5 Annual Emission 22783 kg/year =B7*B28 TSP Annual Emission 493.30 tons/year =B31/1000 PM10 Annual Emission 112.88 tons/year =B32/1000 PM2.5 Annual Emission 22.78 tons/year =B33/1000 DAILY EMISSIONS TSP Daily Emissions 1351.51 kg/day =B31/365 PM10 Daily Emissions 309.26 kg/day =B32/365 PM2.5 Daily Emissions 62.42 kg/day =B33/365 EMISSION RATES TSP Emission Rate 15.64 g/s =B31/31536000 PM10 Emission Rate 3.58 g/s =B32/31536000 PM2.5 Emission Rate 0.72 g/s =B33/31536000 SUMMARY - WIND EROSION TSP (tons/year) 493.30 - - PM10 (tons/year) 112.88 - - PM2.5 (tons/year) 22.78 - -</t>
+  </si>
+  <si>
+    <t>A B C D E ACTIVITY SUMMARY Activity TSP (t/yr) PM10 (t/yr) PM2.5 (t/yr) g/s 1. Drilling 15.94 8.37 0.42 23.14 2. Blasting 15.94 8.37 0.42 23.14 3. Dozers - Ore 189.16 141.87 18.92 6.00 4. Dozers - Waste 63.06 47.30 6.31 2.00 5. Hauling - Unpaved Roads 2990.22 677.93 107.61 94.87 6. Graders - Road Maintenance 25.72 5.74 0.88 0.82 7. Crushing &amp; Grinding 25.90 5.92 1.19 0.82 8. Material Handling - Conveying 11.20 2.59 0.52 0.36 9. Wind Erosion - Stockpiles 493.30 112.88 22.78 15.64 TOTAL UNCONTROLLED EMISSIONS TOTAL TSP (tons/year) 3830.34 - - - TOTAL PM10 (tons/year) 1010.97 - - - TOTAL PM2.5 (tons/year) 158.95 - - - TOTAL (kg/day) 10493.24 2767.84 435.34 166.79 TOTAL (kg/year) 3830034 1010971 158951 - TOTAL (g/s) 121.60 32.05 5.04 - FORMULAS FOR SUMMARY TSP Total =SUM(B2:B10) - - - PM10 Total =SUM(C2:C10) - - - PM2.5 Total =SUM(D2:D10) - - -</t>
+  </si>
+  <si>
+    <t>╔════════════════════════════════════════════════════════════════════════════════════════╗ ║ CONTROL MEASURES &amp; EFFECTIVENESS ║ ╚════════════════════════════════════════════════════════════════════════════════════════╝ A B C D E CONTROL MEASURE INVENTORY Control Measure Activity Status TSP Red% PM10 Red% Water Suppression - Drilling Drilling Active 75% 75% Water Suppression - Blasting Blasting Active 75% 75% Dust Control - Ore Dozers Dozers-Ore Active 50% 50% Dust Control - Waste Dozers Dozers-Waste Active 50% 50% Road Stabilization Hauling Active 85% 85% Speed Limits - Haul Roads Hauling Active 40% 40% Grader Speed Limits Graders Active 40% 40% Dust Collectors - Primary Crusher Crushing Active 99% 99% Dust Collectors - Secondary Crusher Crushing Active 99% 99% Dust Collectors - Grinding Mill Grinding Active 99% 99% Enclosures - Transfer Points Material Hand Active 90% 90% Vegetative Cover - Stockpiles Wind Erosion Active 80% 80% Wind Barriers - Waste Dump Wind Erosion Active 20% 20% CONTROL MEASURE EFFECTIVENESS CALCULATION Activity Uncontrolled Control % Controlled (tons/yr) Applied (tons/yr) Drilling - TSP 15.94 75% 3.99 Drilling - PM10 8.37 75% 2.09 Drilling - PM2.5 0.42 50% 0.21 Blasting - TSP 15.94 75% 3.99 Blasting - PM10 8.37 75% 2.09 Blasting - PM2.5 0.42 50% 0.21 Dozers (Ore) - TSP 189.16 50% 94.58 Dozers (Ore) - PM10 141.87 50% 70.93 Dozers (Ore) - PM2.5 18.92 50% 9.46 Dozers (Waste) - TSP 63.06 50% 31.53 Dozers (Waste) - PM10 47.30 50% 23.65 Dozers (Waste) - PM2.5 6.31 50% 3.16 Hauling - TSP 2990.22 85% 448.53 Hauling - PM10 677.93 85% 101.69 Hauling - PM2.5 107.61 70% 32.28 Graders - TSP 25.72 40% 15.43 Graders - PM10 5.74 40% 3.44 Graders - PM2.5 0.88 30% 0.62 Crushing - TSP 25.90 99% 0.26 Crushing - PM10 5.92 99% 0.06 Crushing - PM2.5 1.19 95% 0.06 Material Handling - TSP 11.20 90% 1.12 Material Handling - PM10 2.59 90% 0.26 Material Handling - PM2.5 0.52 85% 0.08 Wind Erosion - TSP 493.30 80% 98.66 Wind Erosion - PM10 112.88 80% 22.58 Wind Erosion - PM2.5 22.78 60% 9.11 TOTAL CONTROLLED EMISSIONS TOTAL TSP (tons/year) 698.09 - - TOTAL PM10 (tons/year) 226.79 - - TOTAL PM2.5 (tons/year) 55.19 - - EMISSION REDUCTION ACHIEVED Pollutant Uncontrolled Controlled Reduction TSP (tons/year) 3830.34 698.09 3132.25 PM10 (tons/year) 1010.97 226.79 784.18 PM2.5 (tons/year) 158.95 55.19 103.76 Reduction Percentage TSP 81.8% - - PM10 77.6% - - PM2.5 65.3% - - COMPLIANCE STATUS Pollutant Uncontrolled Controlled Limit Status TSP 3830.34 698.09 1000 ✓ PASS PM10 1010.97 226.79 250 ✓ PASS PM2.5 158.95 55.19 35 ⚠ REVIEW</t>
+  </si>
+  <si>
+    <t>CHART 1: UNCONTROLLED EMISSIONS BY ACTIVITY (Pie Chart) Data Source: Sheet 11, Column B (TSP tons/year) CHART 2: CONTROLLED vs UNCONTROLLED (Bar Chart) Categories: TSP, PM10, PM2.5 Uncontrolled: 3830.34, 1010.97, 158.95 Controlled: 698.09, 226.79, 55.19 CHART 3: EMISSION RATES (Line Chart) X-axis: Activities (1-9) Y-axis: g/s Data: Column E from Sheet 11 CHART 4: CONTROL MEASURE EFFECTIVENESS (Horizontal Bar Chart) Measures: Water Suppression, Dust Control, Road Stabilization, etc. Effectiveness %: 75%, 50%, 85%, 40%, 99%, 90%, 80%, 20% CHART 5: DAILY EMISSIONS TREND (Area Chart) Activities stacked showing daily kg/day contribution CHART 6: COMPLIANCE COMPARISON (Column Chart) Pollutants vs Limits TSP, PM10, PM2.5 with limit lines CHART 7: REDUCTION PERCENTAGE (Donut Chart) Reduction % by activity CHART 8: EMISSION SOURCES BREAKDOWN (Stacked Bar) By pollutant type showing contribution of each activity</t>
+  </si>
+  <si>
+    <t>A B C D CONTROL MEASURE COST ANALYSIS Control Measure Annual Cost Reduction Cost/ton (USD) (tons/yr) Reduced Water Suppression System 50000 31.88 1568 Dust Collectors (Crushers) 150000 25.64 5847 Road Stabilization Program 200000 2542.19 78.65 Vegetative Cover (Stockpiles) 75000 394.64 189.93 Wind Barriers Installation 100000 98.66 1013.00 Enclosures (Transfer Points) 80000 10.08 793.65 Speed Limit Enforcement 10000 15.43 648.00 Grader Maintenance 30000 10.29 2916 TOTAL ANNUAL CONTROL COSTS 695000 3128.91 222.07 COST-EFFECTIVENESS RANKING Measure Cost/ton Rank Speed Limit Enforcement 648 1 (Best) Road Stabilization Program 78.65 2 Grader Maintenance 2916 3 Enclosures (Transfer Points) 793.65 4 Wind Barriers Installation 1013 5 Water Suppression System 1568 6 Vegetative Cover (Stockpiles) 189.93 7 Dust Collectors (Crushers) 5847 8 (Highest Cost) PAYBACK PERIOD ANALYSIS Assuming emission credit value: $100/ton TSP Annual Benefit (Reduction × Credit) 312891 USD Annual Cost 695000 USD Net Annual Cost (382109) USD Payback Period 2.22 years</t>
+  </si>
+  <si>
+    <t>A B C D E PARAMETER SENSITIVITY - TSP EMISSIONS Base Case TSP Emission 3830.34 tons/year - - Sensitivity Variables Ore Throughput ±10% - - - - Low (3.15 Mtpa) 3742.96 tons/year -2.3% - High (3.85 Mtpa) 3917.72 tons/year +2.3% - Waste Throughput ±10% - - - - Low (25.2 Mtpa) 3632.62 tons/year -5.2% - High (30.8 Mtpa) 4028.06 tons/year +5.2% - Road Silt Content ±20% - - - - Low (8%) 2990.22 tons/year -21.9% - High (12%) 5670.33 tons/year +47.9% - Wind Speed ±25% - - - - Low (6 m/s) 3336.04 tons/year -13.0% - High (10 m/s) 4324.64 tons/year +12.9% - Control Measure Effectiveness ±20% - - - - Low (60% effective) 1528.14 tons/year -60.1% - High (100% effective) 3830.34 tons/year 0.0% - MOST SENSITIVE PARAMETERS 1. Road Silt Content (±47.9% variation) 2. Waste Throughput (±5.2% variation) 3. Wind Speed (±12.9% variation) 4. Ore Throughput (±2.3% variation)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,8 +134,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,11 +474,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -440,7 +496,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -452,7 +514,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -464,7 +532,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -473,10 +547,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C693C9-88E6-49E2-9578-E0206488C4D0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -488,7 +568,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -500,7 +586,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -509,12 +601,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F32CD98-0485-4F36-8094-315C15683237}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -526,7 +622,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -538,7 +640,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -550,7 +658,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -562,7 +676,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -574,7 +694,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -583,12 +709,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5C1635-5ACD-4236-B1C6-F31414D8300D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -598,11 +728,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -614,7 +750,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>